--- a/xlsx2jsonpy/example/test/test1.xlsx
+++ b/xlsx2jsonpy/example/test/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10360" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>1:2,type:3</t>
+  </si>
+  <si>
+    <t>1:2,type:4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1:2,type:5</t>
+  </si>
+  <si>
+    <t>arrayi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"\"a\\\ne\"r",dd,a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -29,47 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+    <t>树\n"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +137,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +163,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -137,17 +171,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,110 +516,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="71.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="G5" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1002</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
         <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx2jsonpy/example/test/test1.xlsx
+++ b/xlsx2jsonpy/example/test/test1.xlsx
@@ -72,9 +72,6 @@
     <t>3,4</t>
   </si>
   <si>
-    <t>1:2,type:5</t>
-  </si>
-  <si>
     <t>arrayi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,7 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树\n"</t>
+    <t>树\\\n\"333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:"2",type:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,11 +520,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -593,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -601,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -616,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -647,7 +649,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -679,10 +681,10 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>8</v>

--- a/xlsx2jsonpy/example/test/test1.xlsx
+++ b/xlsx2jsonpy/example/test/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11720" yWindow="3460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树\\\n\"333</t>
+    <t>树\n\"333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:"2",type:5</t>
+    <t>1:"1e00",type:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,11 +520,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="71.6640625" customWidth="1"/>
   </cols>
